--- a/old_image/medicationrequest.xlsx
+++ b/old_image/medicationrequest.xlsx
@@ -446,7 +446,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | instance-order | option</t>
+    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, or an original order.</t>
@@ -477,10 +477,10 @@
     <t>MedicationRequest.category</t>
   </si>
   <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
+    <t>Grouping or category of medication request</t>
+  </si>
+  <si>
+    <t>Indicates the grouping or category of medication request (for example, where the medication is expected to be consumed or administered (i.e. inpatient or outpatient)).</t>
   </si>
   <si>
     <t>The category can be used to include where the medication is expected to be consumed or other types of requests.</t>
